--- a/src/数通/3-传输层/UDP报文结构.xlsx
+++ b/src/数通/3-传输层/UDP报文结构.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>源端口号（Source Port）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,6 +34,10 @@
   </si>
   <si>
     <t>校验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上层数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -112,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +127,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,7 +415,7 @@
   <dimension ref="B1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -514,84 +523,84 @@
       </c>
     </row>
     <row r="2" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:33" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
